--- a/metrics.xlsx
+++ b/metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Догонялки" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Январь" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Февраль" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Догонялки" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Январь" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Февраль" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191028" fullCalcOnLoad="1"/>
@@ -1407,14 +1407,14 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -1437,16 +1437,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -1499,7 +1499,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -1512,25 +1512,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -1989,7 +1989,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -2002,25 +2002,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -2479,7 +2479,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
@@ -2493,25 +2493,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -2970,7 +2970,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
@@ -2984,25 +2984,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -3470,8 +3470,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -3483,9 +3483,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3520,7 +3520,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -3537,16 +3537,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -3575,16 +3575,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -3612,14 +3612,14 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -3642,16 +3642,16 @@
       </tx>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
@@ -3704,7 +3704,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent5">
                   <a:lumMod val="60000"/>
@@ -3717,25 +3717,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -3966,7 +3966,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
@@ -3979,25 +3979,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -4228,7 +4228,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1">
                   <a:lumMod val="80000"/>
@@ -4242,25 +4242,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -4491,7 +4491,7 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="80000"/>
@@ -4505,25 +4505,25 @@
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <dLbls>
             <spPr>
-              <a:noFill/>
-              <a:ln>
+              <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:noFill/>
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
             <txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
@@ -4763,8 +4763,8 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
@@ -4776,9 +4776,9 @@
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -4813,7 +4813,7 @@
         <axPos val="l"/>
         <majorGridlines>
           <spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="15000"/>
@@ -4830,16 +4830,16 @@
         <minorTickMark val="none"/>
         <tickLblPos val="nextTo"/>
         <spPr>
-          <a:noFill/>
-          <a:ln>
+          <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:noFill/>
             <a:prstDash val="solid"/>
           </a:ln>
         </spPr>
         <txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
@@ -4868,16 +4868,16 @@
       <legendPos val="b"/>
       <overlay val="0"/>
       <spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:noFill/>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
       <txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
@@ -4905,7 +4905,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -4925,9 +4925,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -4937,7 +4937,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor>
     <from>
       <col>0</col>
@@ -4957,9 +4957,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -6557,7 +6557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -19901,12 +19901,12 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -20835,7 +20835,11 @@
         <f>AP6/AP3</f>
         <v/>
       </c>
-      <c r="AR6" s="20" t="n"/>
+      <c r="AR6" s="20" t="inlineStr">
+        <is>
+          <t>3976</t>
+        </is>
+      </c>
       <c r="AS6" s="37">
         <f>AR6/AR3</f>
         <v/>
@@ -21025,7 +21029,11 @@
         <f>AP7/AP6</f>
         <v/>
       </c>
-      <c r="AR7" s="20" t="n"/>
+      <c r="AR7" s="20" t="inlineStr">
+        <is>
+          <t>3366</t>
+        </is>
+      </c>
       <c r="AS7" s="37">
         <f>AR7/AR6</f>
         <v/>
@@ -21215,7 +21223,11 @@
         <f>AP8/AP6</f>
         <v/>
       </c>
-      <c r="AR8" s="20" t="n"/>
+      <c r="AR8" s="20" t="inlineStr">
+        <is>
+          <t>2791</t>
+        </is>
+      </c>
       <c r="AS8" s="37">
         <f>AR8/AR6</f>
         <v/>
@@ -21637,7 +21649,11 @@
         <f>AP11/AP4</f>
         <v/>
       </c>
-      <c r="AR11" s="20" t="n"/>
+      <c r="AR11" s="20" t="inlineStr">
+        <is>
+          <t>2341</t>
+        </is>
+      </c>
       <c r="AS11" s="39">
         <f>AR11/AR4</f>
         <v/>
@@ -21827,7 +21843,11 @@
         <f>AP12/AP11</f>
         <v/>
       </c>
-      <c r="AR12" s="20" t="n"/>
+      <c r="AR12" s="20" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
       <c r="AS12" s="39">
         <f>AR12/AR11</f>
         <v/>
@@ -22017,7 +22037,11 @@
         <f>AP13/AP11</f>
         <v/>
       </c>
-      <c r="AR13" s="20" t="n"/>
+      <c r="AR13" s="20" t="inlineStr">
+        <is>
+          <t>1178</t>
+        </is>
+      </c>
       <c r="AS13" s="39">
         <f>AR13/AR11</f>
         <v/>
@@ -22207,7 +22231,11 @@
         <f>AP14/AP11</f>
         <v/>
       </c>
-      <c r="AR14" s="20" t="n"/>
+      <c r="AR14" s="20" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
       <c r="AS14" s="40">
         <f>AR14/AR11</f>
         <v/>
@@ -22485,7 +22513,11 @@
         <f>AP16/AP4</f>
         <v/>
       </c>
-      <c r="AR16" s="23" t="n"/>
+      <c r="AR16" s="23" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
       <c r="AS16" s="48">
         <f>AR16/AR4</f>
         <v/>
@@ -22682,7 +22714,11 @@
         <f>AP17/AP16</f>
         <v/>
       </c>
-      <c r="AR17" s="23" t="n"/>
+      <c r="AR17" s="23" t="inlineStr">
+        <is>
+          <t>1475</t>
+        </is>
+      </c>
       <c r="AS17" s="48">
         <f>AR17/AR16</f>
         <v/>
@@ -22880,7 +22916,11 @@
         <f>AP18/AP16</f>
         <v/>
       </c>
-      <c r="AR18" s="23" t="n"/>
+      <c r="AR18" s="23" t="inlineStr">
+        <is>
+          <t>1381</t>
+        </is>
+      </c>
       <c r="AS18" s="48">
         <f>AR18/AR16</f>
         <v/>
@@ -23078,7 +23118,11 @@
         <f>AP19/AP16</f>
         <v/>
       </c>
-      <c r="AR19" s="23" t="n"/>
+      <c r="AR19" s="23" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
       <c r="AS19" s="49">
         <f>AR19/AR16</f>
         <v/>
@@ -23344,7 +23388,11 @@
         <f>AP21/AP4</f>
         <v/>
       </c>
-      <c r="AR21" s="20" t="n"/>
+      <c r="AR21" s="20" t="inlineStr">
+        <is>
+          <t>3477</t>
+        </is>
+      </c>
       <c r="AS21" s="48">
         <f>AR21/AR4</f>
         <v/>
@@ -23534,7 +23582,11 @@
         <f>AP22/AP21</f>
         <v/>
       </c>
-      <c r="AR22" s="20" t="n"/>
+      <c r="AR22" s="20" t="inlineStr">
+        <is>
+          <t>3076</t>
+        </is>
+      </c>
       <c r="AS22" s="48">
         <f>AR22/AR21</f>
         <v/>
@@ -23724,7 +23776,11 @@
         <f>AP23/AP21</f>
         <v/>
       </c>
-      <c r="AR23" s="20" t="n"/>
+      <c r="AR23" s="20" t="inlineStr">
+        <is>
+          <t>2328</t>
+        </is>
+      </c>
       <c r="AS23" s="48">
         <f>AR23/AR21</f>
         <v/>
@@ -23914,7 +23970,11 @@
         <f>AP24/AP21</f>
         <v/>
       </c>
-      <c r="AR24" s="25" t="n"/>
+      <c r="AR24" s="25" t="inlineStr">
+        <is>
+          <t>1922</t>
+        </is>
+      </c>
       <c r="AS24" s="48">
         <f>AR24/AR21</f>
         <v/>
@@ -24171,7 +24231,11 @@
         <f>AP26/AP21</f>
         <v/>
       </c>
-      <c r="AR26" s="20" t="n"/>
+      <c r="AR26" s="20" t="inlineStr">
+        <is>
+          <t>1209</t>
+        </is>
+      </c>
       <c r="AS26" s="48">
         <f>AR26/AR21</f>
         <v/>
@@ -24361,7 +24425,11 @@
         <f>AP27/AP21</f>
         <v/>
       </c>
-      <c r="AR27" s="20" t="n"/>
+      <c r="AR27" s="20" t="inlineStr">
+        <is>
+          <t>995</t>
+        </is>
+      </c>
       <c r="AS27" s="48">
         <f>AR27/AR21</f>
         <v/>
@@ -24551,7 +24619,11 @@
         <f>AP28/AP21</f>
         <v/>
       </c>
-      <c r="AR28" s="20" t="n"/>
+      <c r="AR28" s="20" t="inlineStr">
+        <is>
+          <t>799</t>
+        </is>
+      </c>
       <c r="AS28" s="48">
         <f>AR28/AR21</f>
         <v/>
@@ -24678,7 +24750,11 @@
       <c r="AO29" s="38" t="n"/>
       <c r="AP29" s="24" t="n"/>
       <c r="AQ29" s="38" t="n"/>
-      <c r="AR29" s="24" t="n"/>
+      <c r="AR29" s="24" t="inlineStr">
+        <is>
+          <t>3455</t>
+        </is>
+      </c>
       <c r="AS29" s="38" t="n"/>
       <c r="AT29" s="24" t="n"/>
       <c r="AU29" s="38" t="n"/>
@@ -24911,7 +24987,11 @@
         <f>AP31/AP4</f>
         <v/>
       </c>
-      <c r="AR31" s="20" t="n"/>
+      <c r="AR31" s="20" t="inlineStr">
+        <is>
+          <t>12251</t>
+        </is>
+      </c>
       <c r="AS31" s="41">
         <f>AR31/AR4</f>
         <v/>
@@ -25101,7 +25181,11 @@
         <f>AP32/AP31</f>
         <v/>
       </c>
-      <c r="AR32" s="20" t="n"/>
+      <c r="AR32" s="20" t="inlineStr">
+        <is>
+          <t>11844</t>
+        </is>
+      </c>
       <c r="AS32" s="41">
         <f>AR32/AR31</f>
         <v/>
@@ -25291,7 +25375,11 @@
         <f>AP33/AP31</f>
         <v/>
       </c>
-      <c r="AR33" s="25" t="n"/>
+      <c r="AR33" s="25" t="inlineStr">
+        <is>
+          <t>11773</t>
+        </is>
+      </c>
       <c r="AS33" s="41">
         <f>AR33/AR31</f>
         <v/>
@@ -25481,7 +25569,11 @@
         <f>AP34/AP31</f>
         <v/>
       </c>
-      <c r="AR34" s="51" t="n"/>
+      <c r="AR34" s="51" t="inlineStr">
+        <is>
+          <t>11226</t>
+        </is>
+      </c>
       <c r="AS34" s="41">
         <f>AR34/AR31</f>
         <v/>
@@ -25671,7 +25763,11 @@
         <f>AP35/AP6</f>
         <v/>
       </c>
-      <c r="AR35" s="24" t="n"/>
+      <c r="AR35" s="24" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
       <c r="AS35" s="38">
         <f>AR35/AR6</f>
         <v/>
@@ -26023,7 +26119,11 @@
         <f>AP37/AP6</f>
         <v/>
       </c>
-      <c r="AR37" s="24" t="n"/>
+      <c r="AR37" s="24" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
       <c r="AS37" s="38">
         <f>AR37/AR6</f>
         <v/>
@@ -26280,7 +26380,11 @@
         <f>AP39/AP4</f>
         <v/>
       </c>
-      <c r="AR39" s="20" t="n"/>
+      <c r="AR39" s="20" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
       <c r="AS39" s="44">
         <f>AR39/AR4</f>
         <v/>
@@ -26470,7 +26574,11 @@
         <f>AP40/AP39</f>
         <v/>
       </c>
-      <c r="AR40" s="20" t="n"/>
+      <c r="AR40" s="20" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
       <c r="AS40" s="44">
         <f>AR40/AR39</f>
         <v/>
@@ -26660,7 +26768,11 @@
         <f>AP41/AP39</f>
         <v/>
       </c>
-      <c r="AR41" s="20" t="n"/>
+      <c r="AR41" s="20" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
       <c r="AS41" s="43">
         <f>AR41/AR39</f>
         <v/>
@@ -26917,7 +27029,11 @@
         <f>AP43/AP4</f>
         <v/>
       </c>
-      <c r="AR43" s="20" t="n"/>
+      <c r="AR43" s="20" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
       <c r="AS43" s="48">
         <f>AR43/AR4</f>
         <v/>
@@ -27107,7 +27223,11 @@
         <f>AP44/AP43</f>
         <v/>
       </c>
-      <c r="AR44" s="20" t="n"/>
+      <c r="AR44" s="20" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
       <c r="AS44" s="48">
         <f>AR44/AR43</f>
         <v/>
@@ -27297,7 +27417,11 @@
         <f>AP45/AP43</f>
         <v/>
       </c>
-      <c r="AR45" s="27" t="n"/>
+      <c r="AR45" s="27" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
       <c r="AS45" s="49">
         <f>AR45/AR43</f>
         <v/>
@@ -27487,7 +27611,11 @@
         <f>AP46/(AP43+AP39)</f>
         <v/>
       </c>
-      <c r="AR46" s="28" t="n"/>
+      <c r="AR46" s="28" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
       <c r="AS46" s="46">
         <f>AR46/(AR43+AR39)</f>
         <v/>
@@ -27677,7 +27805,7 @@
         <f>AP47/AP17</f>
         <v/>
       </c>
-      <c r="AR47" s="31" t="n"/>
+      <c r="AR47" s="31" t="inlineStr"/>
       <c r="AS47" s="47">
         <f>AR47/AR17</f>
         <v/>
@@ -27934,7 +28062,11 @@
         <f>AP49/AP17</f>
         <v/>
       </c>
-      <c r="AR49" s="20" t="n"/>
+      <c r="AR49" s="20" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
       <c r="AS49" s="48">
         <f>AR49/AR17</f>
         <v/>
@@ -28124,7 +28256,11 @@
         <f>AP50/AP49</f>
         <v/>
       </c>
-      <c r="AR50" s="20" t="n"/>
+      <c r="AR50" s="20" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
       <c r="AS50" s="49">
         <f>AR50/AR49</f>
         <v/>
@@ -28377,7 +28513,11 @@
         <f>AP52/AP4</f>
         <v/>
       </c>
-      <c r="AR52" s="20" t="n"/>
+      <c r="AR52" s="20" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
       <c r="AS52" s="48">
         <f>AR52/AR4</f>
         <v/>
@@ -28567,7 +28707,11 @@
         <f>AP53/AP52</f>
         <v/>
       </c>
-      <c r="AR53" s="20" t="n"/>
+      <c r="AR53" s="20" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
       <c r="AS53" s="48">
         <f>AR53/AR52</f>
         <v/>
@@ -28755,7 +28899,11 @@
         <f>AP54/AP4</f>
         <v/>
       </c>
-      <c r="AR54" s="24" t="n"/>
+      <c r="AR54" s="24" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
       <c r="AS54" s="38">
         <f>AR54/AR4</f>
         <v/>
@@ -29172,7 +29320,11 @@
         <f>AP57/AP3</f>
         <v/>
       </c>
-      <c r="AR57" s="112" t="n"/>
+      <c r="AR57" s="112" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
       <c r="AS57" s="48">
         <f>AR57/AR3</f>
         <v/>
@@ -29362,7 +29514,11 @@
         <f>AP58/AP57</f>
         <v/>
       </c>
-      <c r="AR58" s="146" t="n"/>
+      <c r="AR58" s="146" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
       <c r="AS58" s="118">
         <f>AR58/AR57</f>
         <v/>
@@ -29612,7 +29768,11 @@
         <f>AP60/AP58</f>
         <v/>
       </c>
-      <c r="AR60" s="20" t="n"/>
+      <c r="AR60" s="20" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
       <c r="AS60" s="48">
         <f>AR60/AR58</f>
         <v/>
@@ -29808,7 +29968,11 @@
         <f>AP61/AP60</f>
         <v/>
       </c>
-      <c r="AR61" s="20" t="n"/>
+      <c r="AR61" s="20" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
       <c r="AS61" s="48">
         <f>AR61/AR60</f>
         <v/>
@@ -30005,7 +30169,11 @@
         <f>AP62/AP60</f>
         <v/>
       </c>
-      <c r="AR62" s="20" t="n"/>
+      <c r="AR62" s="20" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
       <c r="AS62" s="48">
         <f>AR62/AR60</f>
         <v/>
@@ -30202,7 +30370,11 @@
         <f>AP63/AP60</f>
         <v/>
       </c>
-      <c r="AR63" s="20" t="n"/>
+      <c r="AR63" s="20" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
       <c r="AS63" s="48">
         <f>AR63/AR60</f>
         <v/>
@@ -30399,7 +30571,11 @@
         <f>AP64/AP60</f>
         <v/>
       </c>
-      <c r="AR64" s="144" t="n"/>
+      <c r="AR64" s="144" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
       <c r="AS64" s="118">
         <f>AR64/AR60</f>
         <v/>
@@ -30596,7 +30772,11 @@
         <f>AP65/AP64</f>
         <v/>
       </c>
-      <c r="AR65" s="145" t="n"/>
+      <c r="AR65" s="145" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="AS65" s="119">
         <f>AR65/AR64</f>
         <v/>
@@ -30793,7 +30973,11 @@
         <f>AP66/AP65</f>
         <v/>
       </c>
-      <c r="AR66" s="26" t="n"/>
+      <c r="AR66" s="26" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="AS66" s="43">
         <f>AR66/AR65</f>
         <v/>
@@ -30859,6 +31043,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>